--- a/docs/EmulacaoBancoDeDados2.xlsx
+++ b/docs/EmulacaoBancoDeDados2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24576" windowHeight="9420" activeTab="8"/>
+    <workbookView windowWidth="24576" windowHeight="9864" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Avaliacao" sheetId="7" r:id="rId1"/>
@@ -35,6 +35,38 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Matheus</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Matheus:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+cenário para caso de liberação de agendamento sem necessidade de pagamento</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Matheus</author>
@@ -90,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="175">
   <si>
     <t>id</t>
   </si>
@@ -122,6 +154,15 @@
     <t>n/a</t>
   </si>
   <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>observacao</t>
+  </si>
+  <si>
+    <t>pagamento_id</t>
+  </si>
+  <si>
     <t>responsavel_id</t>
   </si>
   <si>
@@ -137,6 +178,12 @@
     <t>codigo</t>
   </si>
   <si>
+    <t>finalizado</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>01</t>
   </si>
   <si>
@@ -305,7 +352,7 @@
     <t>Apartamento 203</t>
   </si>
   <si>
-    <t>Alergia a amendoins, terapia para autoestima</t>
+    <t>Alergia a amendoins</t>
   </si>
   <si>
     <t>AGO</t>
@@ -338,7 +385,7 @@
     <t>Sobrado com jardim</t>
   </si>
   <si>
-    <t>Prática de yoga e meditação, acompanhamento para ansiedade</t>
+    <t>Prática de zumba</t>
   </si>
   <si>
     <t>RIV</t>
@@ -368,22 +415,37 @@
     <t>Prédio comercial</t>
   </si>
   <si>
-    <t>Intolerância à lactose, terapia ocupacional</t>
+    <t>Intolerância à lactose</t>
   </si>
   <si>
     <t>valor</t>
   </si>
   <si>
+    <t>descricao</t>
+  </si>
+  <si>
     <t>200,00</t>
   </si>
   <si>
+    <t>avaliacao</t>
+  </si>
+  <si>
+    <t>avaliação dia 1/1/2025</t>
+  </si>
+  <si>
     <t>200,01</t>
   </si>
   <si>
-    <t>200,02</t>
-  </si>
-  <si>
-    <t>200,03</t>
+    <t>2.000,00</t>
+  </si>
+  <si>
+    <t>garrafa da agua</t>
+  </si>
+  <si>
+    <t>garrafa da torneira</t>
+  </si>
+  <si>
+    <t>avaliação dia 5/1/2025</t>
   </si>
   <si>
     <t>funcao</t>
@@ -521,9 +583,6 @@
     <t>Lucas Souza</t>
   </si>
   <si>
-    <t>Solteiro</t>
-  </si>
-  <si>
     <t>Engenheiro</t>
   </si>
   <si>
@@ -537,9 +596,6 @@
   </si>
   <si>
     <t>Fernanda Souza</t>
-  </si>
-  <si>
-    <t>Solteira</t>
   </si>
   <si>
     <t>Médica</t>
@@ -597,12 +653,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1231,10 +1288,10 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1295,7 +1352,10 @@
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="27">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1568,34 +1628,34 @@
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Dark" pivot="0" count="7" xr9:uid="{A23A6A0A-29F2-439B-92E2-2009244044D1}">
-      <tableStyleElement type="wholeTable" dxfId="8"/>
-      <tableStyleElement type="headerRow" dxfId="7"/>
-      <tableStyleElement type="totalRow" dxfId="6"/>
-      <tableStyleElement type="firstColumn" dxfId="5"/>
-      <tableStyleElement type="lastColumn" dxfId="4"/>
-      <tableStyleElement type="firstRowStripe" dxfId="3"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="2"/>
+      <tableStyleElement type="wholeTable" dxfId="9"/>
+      <tableStyleElement type="headerRow" dxfId="8"/>
+      <tableStyleElement type="totalRow" dxfId="7"/>
+      <tableStyleElement type="firstColumn" dxfId="6"/>
+      <tableStyleElement type="lastColumn" dxfId="5"/>
+      <tableStyleElement type="firstRowStripe" dxfId="4"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="3"/>
     </tableStyle>
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="15"/>
-      <tableStyleElement type="headerRow" dxfId="14"/>
-      <tableStyleElement type="totalRow" dxfId="13"/>
-      <tableStyleElement type="firstColumn" dxfId="12"/>
-      <tableStyleElement type="lastColumn" dxfId="11"/>
-      <tableStyleElement type="firstRowStripe" dxfId="10"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="9"/>
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="25"/>
-      <tableStyleElement type="totalRow" dxfId="24"/>
-      <tableStyleElement type="firstRowStripe" dxfId="23"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="22"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="21"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="20"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="19"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="18"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="17"/>
-      <tableStyleElement type="pageFieldValues" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="26"/>
+      <tableStyleElement type="totalRow" dxfId="25"/>
+      <tableStyleElement type="firstRowStripe" dxfId="24"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="23"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="22"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="21"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="20"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="19"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="18"/>
+      <tableStyleElement type="pageFieldValues" dxfId="17"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1624,14 +1684,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:J3" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:J3" etc:filterBottomFollowUsedRange="0"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:M4" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:M4" etc:filterBottomFollowUsedRange="0"/>
+  <tableColumns count="13">
     <tableColumn id="1" name="id"/>
     <tableColumn id="2" name="data_hora_criacao"/>
+    <tableColumn id="10" name="status"/>
     <tableColumn id="4" name="data_hora_inicio"/>
     <tableColumn id="3" name="data_hora_fim"/>
-    <tableColumn id="4" name="paciente_id"/>
+    <tableColumn id="12" name="observacao"/>
+    <tableColumn id="13" name="pagamento_id" dataDxfId="1"/>
+    <tableColumn id="11" name="paciente_id"/>
     <tableColumn id="5" name="responsavel_id"/>
     <tableColumn id="6" name="avaliador_id"/>
     <tableColumn id="7" name="recepcionista_id"/>
@@ -1648,7 +1711,7 @@
   <tableColumns count="6">
     <tableColumn id="1" name="id"/>
     <tableColumn id="2" name="data_hora_criacao"/>
-    <tableColumn id="6" name="ativo"/>
+    <tableColumn id="3" name="ativo"/>
     <tableColumn id="4" name="responsavel_id"/>
     <tableColumn id="5" name="convenio"/>
     <tableColumn id="6" name="documento_id"/>
@@ -1678,7 +1741,7 @@
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:V5" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="22">
     <tableColumn id="1" name="id"/>
-    <tableColumn id="2" name="data_hora_criacao" dataDxfId="1"/>
+    <tableColumn id="2" name="data_hora_criacao" dataDxfId="2"/>
     <tableColumn id="3" name="ativo"/>
     <tableColumn id="22" name="unidade"/>
     <tableColumn id="4" name="codigo"/>
@@ -1705,13 +1768,15 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table3_57" displayName="Table3_57" ref="A1:D5" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:D5" etc:filterBottomFollowUsedRange="0"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table3_57" displayName="Table3_57" ref="A1:F6" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F6" etc:filterBottomFollowUsedRange="0"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="id"/>
     <tableColumn id="2" name="data_hora_criacao"/>
     <tableColumn id="3" name="responsavel_id"/>
     <tableColumn id="4" name="valor"/>
+    <tableColumn id="5" name="tipo"/>
+    <tableColumn id="6" name="descricao"/>
   </tableColumns>
   <tableStyleInfo name="TableStylePreset3_Dark" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2037,7 +2102,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="7"/>
@@ -2085,7 +2150,7 @@
         <v>45658</v>
       </c>
       <c r="C2" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2097,7 +2162,7 @@
         <v>45658</v>
       </c>
       <c r="G2" s="1">
-        <v>45659</v>
+        <v>45778</v>
       </c>
       <c r="H2" t="s">
         <v>8</v>
@@ -2140,28 +2205,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J3"/>
+  <sheetPr>
+    <pageSetUpPr autoPageBreaks="0"/>
+  </sheetPr>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="3.22222222222222" customWidth="1"/>
     <col min="2" max="2" width="18.2222222222222" customWidth="1"/>
-    <col min="3" max="3" width="16.5555555555556" customWidth="1"/>
-    <col min="4" max="4" width="14.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="11.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="14.7777777777778" customWidth="1"/>
-    <col min="7" max="7" width="12.2222222222222" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="4.88888888888889" customWidth="1"/>
-    <col min="10" max="10" width="7.33333333333333" customWidth="1"/>
+    <col min="3" max="3" width="9.55555555555556" customWidth="1"/>
+    <col min="4" max="4" width="16.5555555555556" customWidth="1"/>
+    <col min="5" max="5" width="14.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="11.5555555555556" customWidth="1"/>
+    <col min="7" max="7" width="14.4444444444444" customWidth="1"/>
+    <col min="8" max="8" width="11.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="14.7777777777778" customWidth="1"/>
+    <col min="10" max="10" width="12.2222222222222" customWidth="1"/>
+    <col min="11" max="11" width="16" customWidth="1"/>
+    <col min="12" max="12" width="4.88888888888889" customWidth="1"/>
+    <col min="13" max="13" width="7.33333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2169,22 +2239,22 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
       </c>
       <c r="I1" t="s">
         <v>13</v>
@@ -2192,76 +2262,149 @@
       <c r="J1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>45658</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1">
         <v>45658</v>
       </c>
-      <c r="D2" s="1">
-        <v>45659</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
+      <c r="E2" s="1">
+        <v>45658</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
         <v>2</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>45689</v>
       </c>
-      <c r="C3" s="1">
-        <v>45689</v>
+      <c r="C3" t="s">
+        <v>18</v>
       </c>
       <c r="D3" s="1">
         <v>45689</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
+        <v>45689</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="6">
         <v>2</v>
       </c>
-      <c r="F3">
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
         <v>3</v>
       </c>
-      <c r="G3">
+      <c r="J3">
         <v>3</v>
       </c>
-      <c r="H3">
+      <c r="K3">
         <v>4</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="L3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C4" t="s">
         <v>18</v>
       </c>
+      <c r="D4" s="1">
+        <v>45778</v>
+      </c>
+      <c r="E4" s="1">
+        <v>45778</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="6">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="7:7">
+      <c r="G5" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2272,7 +2415,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="5"/>
@@ -2293,13 +2436,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -2400,7 +2543,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -2422,13 +2565,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -2442,16 +2585,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>45658</v>
+        <v>45778</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -2471,10 +2614,10 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -2488,16 +2631,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>45658</v>
+        <v>45778</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -2517,10 +2660,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F5" s="2">
         <v>2</v>
@@ -2540,10 +2683,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F6" s="2">
         <v>2</v>
@@ -2563,10 +2706,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F7" s="2">
         <v>2</v>
@@ -2586,10 +2729,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F8" s="2">
         <v>3</v>
@@ -2609,10 +2752,10 @@
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F9" s="2">
         <v>4</v>
@@ -2633,11 +2776,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr>
+    <pageSetUpPr autoPageBreaks="0"/>
+  </sheetPr>
   <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
@@ -2651,7 +2796,7 @@
     <col min="7" max="7" width="12.2222222222222" customWidth="1"/>
     <col min="8" max="8" width="5.44444444444444" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="17.1111111111111" customWidth="1"/>
+    <col min="10" max="10" width="22.1203703703704" customWidth="1"/>
     <col min="11" max="11" width="20.5555555555556" customWidth="1"/>
     <col min="12" max="12" width="12.8888888888889" customWidth="1"/>
     <col min="13" max="13" width="10.9722222222222" customWidth="1"/>
@@ -2659,7 +2804,7 @@
     <col min="15" max="15" width="9.66666666666667" customWidth="1"/>
     <col min="16" max="16" width="4.22222222222222" customWidth="1"/>
     <col min="17" max="17" width="19.7314814814815" customWidth="1"/>
-    <col min="18" max="18" width="10.7777777777778" customWidth="1"/>
+    <col min="18" max="18" width="19.037037037037" customWidth="1"/>
     <col min="19" max="19" width="21.2222222222222" customWidth="1"/>
     <col min="20" max="20" width="8.33333333333333" customWidth="1"/>
     <col min="21" max="21" width="25.7777777777778" customWidth="1"/>
@@ -2674,64 +2819,64 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="L1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="M1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="O1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="P1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="Q1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="R1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="T1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="U1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="V1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:22">
@@ -2745,25 +2890,25 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I2" s="1">
         <v>37987</v>
       </c>
       <c r="J2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K2">
         <v>123123123</v>
@@ -2772,7 +2917,7 @@
         <v>12312312312</v>
       </c>
       <c r="M2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="N2">
         <v>123123</v>
@@ -2781,28 +2926,28 @@
         <v>12312312</v>
       </c>
       <c r="P2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="Q2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="R2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="S2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="T2">
         <v>123</v>
       </c>
       <c r="U2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="V2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" ht="28.8" spans="1:22">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2813,25 +2958,25 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I3" s="3">
         <v>40211</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="K3" s="2">
         <v>223344556</v>
@@ -2840,7 +2985,7 @@
         <v>98765432100</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="N3" s="2">
         <v>987654</v>
@@ -2849,28 +2994,28 @@
         <v>45678901</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="T3" s="2">
         <v>456</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" ht="43.2" spans="1:22">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2881,25 +3026,25 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I4" s="3">
         <v>41701</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K4" s="2">
         <v>334455667</v>
@@ -2908,7 +3053,7 @@
         <v>11223344556</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="N4" s="2">
         <v>334455</v>
@@ -2917,28 +3062,28 @@
         <v>78901234</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="T4" s="2">
         <v>789</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" ht="28.8" spans="1:22">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2949,25 +3094,25 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I5" s="3">
         <v>39542</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K5" s="2">
         <v>445566778</v>
@@ -2976,7 +3121,7 @@
         <v>99887766554</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="N5" s="2">
         <v>445566</v>
@@ -2985,25 +3130,25 @@
         <v>89012345</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="T5" s="2">
         <v>101</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3019,20 +3164,22 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="3.22222222222222" customWidth="1"/>
     <col min="2" max="2" width="18.2222222222222" customWidth="1"/>
     <col min="3" max="3" width="14.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="17.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="21.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3040,13 +3187,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>98</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3057,10 +3210,16 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3071,10 +3230,16 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>103</v>
+      </c>
+      <c r="E3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3085,10 +3250,16 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>104</v>
+      </c>
+      <c r="E4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3098,8 +3269,34 @@
       <c r="C5">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
-        <v>97</v>
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3117,13 +3314,20 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="5" max="5" width="9.66666666666667"/>
+    <col min="1" max="1" width="3.22222222222222" customWidth="1"/>
+    <col min="2" max="2" width="18.2222222222222" customWidth="1"/>
+    <col min="3" max="3" width="6.11111111111111" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="9.66666666666667" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="7" max="7" width="12.8888888888889" customWidth="1"/>
+    <col min="8" max="8" width="25.1111111111111" customWidth="1"/>
+    <col min="9" max="9" width="11.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -3134,25 +3338,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="H1" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="I1" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3166,22 +3370,22 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="E2">
         <v>12612312</v>
       </c>
       <c r="F2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>104</v>
+        <v>113</v>
+      </c>
+      <c r="H2" t="s">
+        <v>114</v>
       </c>
       <c r="I2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3195,25 +3399,25 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E3">
         <v>12712312</v>
       </c>
       <c r="F3" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="G3" t="s">
-        <v>108</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" ht="43.2" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="H3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -3224,25 +3428,25 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="E4" s="2">
         <v>12812312</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" ht="43.2" spans="1:9">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3253,30 +3457,25 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E5" s="2">
         <v>12912312</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H2" r:id="rId4" display="recepcao01@outlook.com"/>
-    <hyperlink ref="H3" r:id="rId5" display="lucas@gmail.com"/>
-    <hyperlink ref="I3" r:id="rId6" display="lucas@456"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
@@ -3292,7 +3491,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E12:E13"/>
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -3302,14 +3501,15 @@
     <col min="3" max="3" width="6.11111111111111" customWidth="1"/>
     <col min="4" max="4" width="23.1111111111111" customWidth="1"/>
     <col min="5" max="5" width="11.7777777777778" customWidth="1"/>
-    <col min="6" max="7" width="9.66666666666667" customWidth="1"/>
+    <col min="6" max="6" width="12.8888888888889" customWidth="1"/>
+    <col min="7" max="7" width="9.66666666666667" customWidth="1"/>
     <col min="8" max="8" width="8.66666666666667" customWidth="1"/>
     <col min="9" max="10" width="12.4444444444444" customWidth="1"/>
     <col min="11" max="11" width="28" customWidth="1"/>
     <col min="12" max="12" width="9.66666666666667" customWidth="1"/>
     <col min="13" max="13" width="4.22222222222222" customWidth="1"/>
-    <col min="14" max="14" width="8.55555555555556" customWidth="1"/>
-    <col min="15" max="15" width="7.22222222222222" customWidth="1"/>
+    <col min="14" max="14" width="19.6666666666667" customWidth="1"/>
+    <col min="15" max="15" width="20.2222222222222" customWidth="1"/>
     <col min="16" max="16" width="21.2222222222222" customWidth="1"/>
     <col min="17" max="17" width="8.33333333333333" customWidth="1"/>
     <col min="18" max="18" width="25.7777777777778" customWidth="1"/>
@@ -3325,52 +3525,52 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="F1" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H1" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="I1" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="J1" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="K1" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="L1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="M1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="N1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="O1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="P1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="R1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -3384,13 +3584,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="F2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="G2">
         <v>12412412</v>
@@ -3399,34 +3599,34 @@
         <v>8238932</v>
       </c>
       <c r="I2" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="J2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>127</v>
+        <v>136</v>
+      </c>
+      <c r="K2" t="s">
+        <v>137</v>
       </c>
       <c r="L2">
         <v>12312312</v>
       </c>
       <c r="M2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="N2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="O2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="P2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="Q2">
         <v>123</v>
       </c>
       <c r="R2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -3440,13 +3640,13 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="E3" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="F3" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="G3">
         <v>12412415</v>
@@ -3455,37 +3655,37 @@
         <v>8238934</v>
       </c>
       <c r="I3" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="J3" t="s">
-        <v>130</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>131</v>
+        <v>140</v>
+      </c>
+      <c r="K3" t="s">
+        <v>141</v>
       </c>
       <c r="L3">
         <v>12312312</v>
       </c>
       <c r="M3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="N3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="P3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="Q3">
         <v>123</v>
       </c>
       <c r="R3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" ht="28.8" spans="1:18">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -3496,13 +3696,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="G4" s="2">
         <v>12512512</v>
@@ -3511,37 +3711,37 @@
         <v>8348573</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="L4" s="2">
         <v>22334455</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="Q4" s="2">
         <v>456</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" ht="28.8" spans="1:18">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3552,13 +3752,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="G5" s="2">
         <v>12512513</v>
@@ -3567,37 +3767,37 @@
         <v>8348574</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="L5" s="2">
         <v>22334455</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="Q5" s="2">
         <v>456</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" ht="43.2" spans="1:18">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -3608,13 +3808,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="G6" s="2">
         <v>12612612</v>
@@ -3623,37 +3823,37 @@
         <v>8234567</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="L6" s="2">
         <v>33445566</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Q6" s="2">
         <v>789</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" ht="43.2" spans="1:18">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -3664,13 +3864,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="G7" s="2">
         <v>12612613</v>
@@ -3679,37 +3879,37 @@
         <v>8234568</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="L7" s="2">
         <v>33445566</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Q7" s="2">
         <v>789</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" ht="28.8" spans="1:18">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -3720,13 +3920,13 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="G8" s="2">
         <v>12712712</v>
@@ -3735,37 +3935,37 @@
         <v>8456789</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="L8" s="2">
         <v>44556677</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="Q8" s="2">
         <v>101</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" ht="28.8" spans="1:18">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3776,13 +3976,13 @@
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="G9" s="2">
         <v>12712713</v>
@@ -3791,41 +3991,37 @@
         <v>8456790</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="L9" s="2">
         <v>44556677</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="Q9" s="2">
         <v>101</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="K2" r:id="rId2" display="mecanicomata@outlook.com"/>
-    <hyperlink ref="K3" r:id="rId3" display="donamata@outlook.com" tooltip="mailto:donamata@outlook.com"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <tableParts count="1">
@@ -3839,8 +4035,8 @@
   <sheetPr/>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -3863,10 +4059,10 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3883,7 +4079,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3900,7 +4096,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3917,7 +4113,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3934,7 +4130,7 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3951,7 +4147,7 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3968,7 +4164,7 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3985,7 +4181,7 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4002,7 +4198,7 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
